--- a/Screener/XLS/ALO.PA.xlsx
+++ b/Screener/XLS/ALO.PA.xlsx
@@ -1,338 +1,525 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="cash-flow" sheetId="1" r:id="rId1"/>
-    <sheet name="balance-sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="financials" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cash-flow" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="balance-sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financials" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
   <si>
     <t>Fin de la période</t>
   </si>
   <si>
+    <t>31/03/2004</t>
+  </si>
+  <si>
+    <t>31/03/2003</t>
+  </si>
+  <si>
+    <t>31/03/2002</t>
+  </si>
+  <si>
     <t>Bénéfice net</t>
   </si>
   <si>
+    <t>-3 369 652,6</t>
+  </si>
+  <si>
+    <t>-1 232 280</t>
+  </si>
+  <si>
+    <t>-121 500</t>
+  </si>
+  <si>
     <t>Activités d’exploitation, flux de trésorerie fournis par ou utilisés dans</t>
   </si>
   <si>
     <t>Dépréciation</t>
   </si>
   <si>
+    <t>884 122,8</t>
+  </si>
+  <si>
+    <t>814 320</t>
+  </si>
+  <si>
+    <t>690 500</t>
+  </si>
+  <si>
     <t>Ajustements des bénéfices nets</t>
   </si>
   <si>
+    <t>108 384,2</t>
+  </si>
+  <si>
+    <t>-482 760</t>
+  </si>
+  <si>
+    <t>-272 000</t>
+  </si>
+  <si>
     <t>Variations des comptes débiteurs</t>
   </si>
   <si>
+    <t>584 544</t>
+  </si>
+  <si>
+    <t>17 280</t>
+  </si>
+  <si>
+    <t>722 800</t>
+  </si>
+  <si>
     <t>Variations du passif</t>
   </si>
   <si>
+    <t>-1 225 106,8</t>
+  </si>
+  <si>
+    <t>93 960</t>
+  </si>
+  <si>
+    <t>-500 200</t>
+  </si>
+  <si>
     <t>Variations des stocks</t>
   </si>
   <si>
+    <t>473 724,2</t>
+  </si>
+  <si>
+    <t>448 200</t>
+  </si>
+  <si>
+    <t>47 100</t>
+  </si>
+  <si>
     <t>Variations d’autres activités d’exploitation</t>
   </si>
   <si>
+    <t>63 325,6</t>
+  </si>
+  <si>
+    <t>136 080</t>
+  </si>
+  <si>
+    <t>-931 200</t>
+  </si>
+  <si>
     <t>Flux total de trésorerie des activités d’exploitation</t>
   </si>
   <si>
+    <t>-1 288 432,4</t>
+  </si>
+  <si>
+    <t>-579 960</t>
+  </si>
+  <si>
+    <t>-364 500</t>
+  </si>
+  <si>
     <t>Activités d’investissement, flux de trésorerie fournis par ou utilisés dans</t>
   </si>
   <si>
     <t>Dépenses en immobilisations</t>
   </si>
   <si>
+    <t>-309 321,2</t>
+  </si>
+  <si>
+    <t>-442 800</t>
+  </si>
+  <si>
+    <t>-570 100</t>
+  </si>
+  <si>
     <t>Investissements</t>
   </si>
   <si>
+    <t>1 770 681,2</t>
+  </si>
+  <si>
+    <t>-138 240</t>
+  </si>
+  <si>
+    <t>672 900</t>
+  </si>
+  <si>
     <t>Autres flux de trésorerie des activités d’investissement</t>
   </si>
   <si>
+    <t>439 625,8</t>
+  </si>
+  <si>
+    <t>212 760</t>
+  </si>
+  <si>
+    <t>4 900</t>
+  </si>
+  <si>
     <t>Flux total de trésorerie des activités d’investissement</t>
   </si>
   <si>
+    <t>1 900 985,8</t>
+  </si>
+  <si>
+    <t>-368 280</t>
+  </si>
+  <si>
+    <t>107 700</t>
+  </si>
+  <si>
     <t>Activités financières, flux de trésorerie fournis par ou utilisés dans</t>
   </si>
   <si>
     <t>Dividendes payés</t>
   </si>
   <si>
+    <t>-3 653,4</t>
+  </si>
+  <si>
+    <t>-1 080</t>
+  </si>
+  <si>
+    <t>-118 600</t>
+  </si>
+  <si>
     <t>Acquisition d'actions</t>
   </si>
   <si>
+    <t>185 105,6</t>
+  </si>
+  <si>
+    <t>671 760</t>
+  </si>
+  <si>
     <t>Emprunts nets</t>
   </si>
   <si>
+    <t>1 247 027,2</t>
+  </si>
+  <si>
     <t>Autres flux de trésorerie des activités de financement</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Flux total de trésorerie des activités de financement</t>
   </si>
   <si>
+    <t>1 428 479,4</t>
+  </si>
+  <si>
+    <t>670 680</t>
+  </si>
+  <si>
     <t>Effet des variations des taux de change</t>
   </si>
   <si>
+    <t>-25 573,8</t>
+  </si>
+  <si>
+    <t>-545 400</t>
+  </si>
+  <si>
+    <t>-500</t>
+  </si>
+  <si>
     <t>Variations des espèces et des valeurs en espèces</t>
   </si>
   <si>
+    <t>2 015 459</t>
+  </si>
+  <si>
+    <t>-822 960</t>
+  </si>
+  <si>
+    <t>-375 900</t>
+  </si>
+  <si>
     <t xml:space="preserve">En utilisant Yahoo vous acceptez les </t>
   </si>
   <si>
-    <t>31/03/2004</t>
-  </si>
-  <si>
-    <t>-3 369 652,6</t>
-  </si>
-  <si>
-    <t>884 122,8</t>
-  </si>
-  <si>
-    <t>108 384,2</t>
-  </si>
-  <si>
-    <t>584 544</t>
-  </si>
-  <si>
-    <t>-1 225 106,8</t>
-  </si>
-  <si>
-    <t>473 724,2</t>
-  </si>
-  <si>
-    <t>63 325,6</t>
-  </si>
-  <si>
-    <t>-1 288 432,4</t>
-  </si>
-  <si>
-    <t>-309 321,2</t>
-  </si>
-  <si>
-    <t>1 770 681,2</t>
-  </si>
-  <si>
-    <t>439 625,8</t>
-  </si>
-  <si>
-    <t>1 900 985,8</t>
-  </si>
-  <si>
-    <t>-3 653,4</t>
-  </si>
-  <si>
-    <t>185 105,6</t>
-  </si>
-  <si>
-    <t>1 247 027,2</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1 428 479,4</t>
-  </si>
-  <si>
-    <t>-25 573,8</t>
-  </si>
-  <si>
-    <t>2 015 459</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>31/03/2003</t>
-  </si>
-  <si>
-    <t>-1 232 280</t>
-  </si>
-  <si>
-    <t>814 320</t>
-  </si>
-  <si>
-    <t>-482 760</t>
-  </si>
-  <si>
-    <t>17 280</t>
-  </si>
-  <si>
-    <t>93 960</t>
-  </si>
-  <si>
-    <t>448 200</t>
-  </si>
-  <si>
-    <t>136 080</t>
-  </si>
-  <si>
-    <t>-579 960</t>
-  </si>
-  <si>
-    <t>-442 800</t>
-  </si>
-  <si>
-    <t>-138 240</t>
-  </si>
-  <si>
-    <t>212 760</t>
-  </si>
-  <si>
-    <t>-368 280</t>
-  </si>
-  <si>
-    <t>-1 080</t>
-  </si>
-  <si>
-    <t>671 760</t>
-  </si>
-  <si>
-    <t>670 680</t>
-  </si>
-  <si>
-    <t>-545 400</t>
-  </si>
-  <si>
-    <t>-822 960</t>
-  </si>
-  <si>
-    <t>31/03/2002</t>
-  </si>
-  <si>
-    <t>-121 500</t>
-  </si>
-  <si>
-    <t>690 500</t>
-  </si>
-  <si>
-    <t>-272 000</t>
-  </si>
-  <si>
-    <t>722 800</t>
-  </si>
-  <si>
-    <t>-500 200</t>
-  </si>
-  <si>
-    <t>47 100</t>
-  </si>
-  <si>
-    <t>-931 200</t>
-  </si>
-  <si>
-    <t>-364 500</t>
-  </si>
-  <si>
-    <t>-570 100</t>
-  </si>
-  <si>
-    <t>672 900</t>
-  </si>
-  <si>
-    <t>4 900</t>
-  </si>
-  <si>
-    <t>107 700</t>
-  </si>
-  <si>
-    <t>-118 600</t>
-  </si>
-  <si>
-    <t>-500</t>
-  </si>
-  <si>
-    <t>-375 900</t>
-  </si>
-  <si>
     <t>Actif à court terme</t>
   </si>
   <si>
     <t>Espèces et quasi-espèces</t>
   </si>
   <si>
+    <t>1 737 800,6</t>
+  </si>
+  <si>
+    <t>1 758 240</t>
+  </si>
+  <si>
+    <t>1 660 100</t>
+  </si>
+  <si>
     <t>Investissements à court terme</t>
   </si>
   <si>
+    <t>47 494,2</t>
+  </si>
+  <si>
+    <t>154 440</t>
+  </si>
+  <si>
+    <t>288 800</t>
+  </si>
+  <si>
     <t>Créances nettes</t>
   </si>
   <si>
+    <t>6 434 855,2</t>
+  </si>
+  <si>
+    <t>7 379 640</t>
+  </si>
+  <si>
+    <t>6 614 800</t>
+  </si>
+  <si>
     <t>Inventaire</t>
   </si>
   <si>
+    <t>3 515 788,6</t>
+  </si>
+  <si>
+    <t>4 976 640</t>
+  </si>
+  <si>
+    <t>4 875 100</t>
+  </si>
+  <si>
     <t>Autre actif à court terme</t>
   </si>
   <si>
+    <t>243 560</t>
+  </si>
+  <si>
+    <t>282 960</t>
+  </si>
+  <si>
+    <t>388 500</t>
+  </si>
+  <si>
     <t>Total des actifs à court terme</t>
   </si>
   <si>
+    <t>11 979 498,6</t>
+  </si>
+  <si>
+    <t>14 551 920</t>
+  </si>
+  <si>
+    <t>13 827 300</t>
+  </si>
+  <si>
     <t>Investissements à long terme</t>
   </si>
   <si>
+    <t>1 199 533</t>
+  </si>
+  <si>
+    <t>1 213 920</t>
+  </si>
+  <si>
+    <t>262 400</t>
+  </si>
+  <si>
     <t>Immobilisations corporelles</t>
   </si>
   <si>
+    <t>1 910 728,2</t>
+  </si>
+  <si>
+    <t>2 607 120</t>
+  </si>
+  <si>
+    <t>2 430 400</t>
+  </si>
+  <si>
     <t>Clientèle</t>
   </si>
   <si>
+    <t>4 844 408,4</t>
+  </si>
+  <si>
+    <t>5 101 920</t>
+  </si>
+  <si>
+    <t>4 020 700</t>
+  </si>
+  <si>
     <t>Biens incorporels</t>
   </si>
   <si>
+    <t>1 164 216,8</t>
+  </si>
+  <si>
+    <t>1 261 440</t>
+  </si>
+  <si>
+    <t>1 019 500</t>
+  </si>
+  <si>
     <t>Amortissement cumulé</t>
   </si>
   <si>
     <t>Autres actifs</t>
   </si>
   <si>
+    <t>-2 649 932,8</t>
+  </si>
+  <si>
+    <t>-2 061 720</t>
+  </si>
+  <si>
+    <t>1 156 100</t>
+  </si>
+  <si>
     <t>Charges différées sur l’actif à long terme</t>
   </si>
   <si>
+    <t>2 015 280</t>
+  </si>
+  <si>
+    <t>1 868 900</t>
+  </si>
+  <si>
     <t>Total des actifs</t>
   </si>
   <si>
+    <t>20 349 438</t>
+  </si>
+  <si>
+    <t>24 689 880</t>
+  </si>
+  <si>
+    <t>24 585 300</t>
+  </si>
+  <si>
     <t>Passif à court terme</t>
   </si>
   <si>
     <t>Créances</t>
   </si>
   <si>
+    <t>9 584 086</t>
+  </si>
+  <si>
+    <t>10 147 680</t>
+  </si>
+  <si>
+    <t>8 806 200</t>
+  </si>
+  <si>
     <t>Dette à court/long terme</t>
   </si>
   <si>
     <t>Autre passif à court terme</t>
   </si>
   <si>
+    <t>3 305 109,2</t>
+  </si>
+  <si>
+    <t>3 824 280</t>
+  </si>
+  <si>
+    <t>5 191 500</t>
+  </si>
+  <si>
     <t>Total des passifs à court terme</t>
   </si>
   <si>
+    <t>12 889 195,2</t>
+  </si>
+  <si>
+    <t>13 971 960</t>
+  </si>
+  <si>
+    <t>13 997 700</t>
+  </si>
+  <si>
     <t>Dette à long terme</t>
   </si>
   <si>
+    <t>5 509 327,2</t>
+  </si>
+  <si>
+    <t>6 837 480</t>
+  </si>
+  <si>
+    <t>3 781 900</t>
+  </si>
+  <si>
     <t>Autres passifs</t>
   </si>
   <si>
+    <t>4 248 904,2</t>
+  </si>
+  <si>
+    <t>5 086 800</t>
+  </si>
+  <si>
+    <t>4 406 000</t>
+  </si>
+  <si>
     <t>Charges différées sur le passif à long terme</t>
   </si>
   <si>
+    <t>2 394 194,8</t>
+  </si>
+  <si>
+    <t>39 960</t>
+  </si>
+  <si>
+    <t>613 900</t>
+  </si>
+  <si>
     <t>Participation minoritaire</t>
   </si>
   <si>
+    <t>82 810,4</t>
+  </si>
+  <si>
+    <t>102 600</t>
+  </si>
+  <si>
+    <t>79 400</t>
+  </si>
+  <si>
     <t>Clientèle négative</t>
   </si>
   <si>
     <t>Passifs totaux</t>
   </si>
   <si>
+    <t>25 124 431,8</t>
+  </si>
+  <si>
+    <t>26 038 800</t>
+  </si>
+  <si>
+    <t>22 878 900</t>
+  </si>
+  <si>
     <t>Capitaux propres des détenteurs</t>
   </si>
   <si>
@@ -342,270 +529,84 @@
     <t>Action privilégiée échangeable</t>
   </si>
   <si>
+    <t>178 700</t>
+  </si>
+  <si>
     <t>Action privilégiée</t>
   </si>
   <si>
     <t>Action ordinaire</t>
   </si>
   <si>
+    <t>1 608 713,8</t>
+  </si>
+  <si>
+    <t>1 825 200</t>
+  </si>
+  <si>
+    <t>1 126 500</t>
+  </si>
+  <si>
     <t>Bénéfices non répartis</t>
   </si>
   <si>
+    <t>-1 355 411,4</t>
+  </si>
+  <si>
+    <t>-1 049 760</t>
+  </si>
+  <si>
+    <t>571 400</t>
+  </si>
+  <si>
     <t>Actions de trésorerie</t>
   </si>
   <si>
     <t>Excédent de capital</t>
   </si>
   <si>
+    <t>77 939,2</t>
+  </si>
+  <si>
+    <t>333 720</t>
+  </si>
+  <si>
+    <t>74 300</t>
+  </si>
+  <si>
     <t>Autres capitaux propres</t>
   </si>
   <si>
+    <t>-5 106 235,4</t>
+  </si>
+  <si>
+    <t>-2 458 080</t>
+  </si>
+  <si>
+    <t>-244 500</t>
+  </si>
+  <si>
     <t>Total des capitaux propres</t>
   </si>
   <si>
+    <t>-4 774 993,8</t>
+  </si>
+  <si>
+    <t>-1 348 920</t>
+  </si>
+  <si>
+    <t>1 527 700</t>
+  </si>
+  <si>
     <t>Actifs corporels nets</t>
   </si>
   <si>
-    <t>1 737 800,6</t>
-  </si>
-  <si>
-    <t>47 494,2</t>
-  </si>
-  <si>
-    <t>6 434 855,2</t>
-  </si>
-  <si>
-    <t>3 515 788,6</t>
-  </si>
-  <si>
-    <t>243 560</t>
-  </si>
-  <si>
-    <t>11 979 498,6</t>
-  </si>
-  <si>
-    <t>1 199 533</t>
-  </si>
-  <si>
-    <t>1 910 728,2</t>
-  </si>
-  <si>
-    <t>4 844 408,4</t>
-  </si>
-  <si>
-    <t>1 164 216,8</t>
-  </si>
-  <si>
-    <t>-2 649 932,8</t>
-  </si>
-  <si>
-    <t>20 349 438</t>
-  </si>
-  <si>
-    <t>9 584 086</t>
-  </si>
-  <si>
-    <t>3 305 109,2</t>
-  </si>
-  <si>
-    <t>12 889 195,2</t>
-  </si>
-  <si>
-    <t>5 509 327,2</t>
-  </si>
-  <si>
-    <t>4 248 904,2</t>
-  </si>
-  <si>
-    <t>2 394 194,8</t>
-  </si>
-  <si>
-    <t>82 810,4</t>
-  </si>
-  <si>
-    <t>25 124 431,8</t>
-  </si>
-  <si>
-    <t>1 608 713,8</t>
-  </si>
-  <si>
-    <t>-1 355 411,4</t>
-  </si>
-  <si>
-    <t>77 939,2</t>
-  </si>
-  <si>
-    <t>-5 106 235,4</t>
-  </si>
-  <si>
-    <t>-4 774 993,8</t>
-  </si>
-  <si>
     <t>-10 783 619</t>
   </si>
   <si>
-    <t>1 758 240</t>
-  </si>
-  <si>
-    <t>154 440</t>
-  </si>
-  <si>
-    <t>7 379 640</t>
-  </si>
-  <si>
-    <t>4 976 640</t>
-  </si>
-  <si>
-    <t>282 960</t>
-  </si>
-  <si>
-    <t>14 551 920</t>
-  </si>
-  <si>
-    <t>1 213 920</t>
-  </si>
-  <si>
-    <t>2 607 120</t>
-  </si>
-  <si>
-    <t>5 101 920</t>
-  </si>
-  <si>
-    <t>1 261 440</t>
-  </si>
-  <si>
-    <t>-2 061 720</t>
-  </si>
-  <si>
-    <t>2 015 280</t>
-  </si>
-  <si>
-    <t>24 689 880</t>
-  </si>
-  <si>
-    <t>10 147 680</t>
-  </si>
-  <si>
-    <t>3 824 280</t>
-  </si>
-  <si>
-    <t>13 971 960</t>
-  </si>
-  <si>
-    <t>6 837 480</t>
-  </si>
-  <si>
-    <t>5 086 800</t>
-  </si>
-  <si>
-    <t>39 960</t>
-  </si>
-  <si>
-    <t>102 600</t>
-  </si>
-  <si>
-    <t>26 038 800</t>
-  </si>
-  <si>
-    <t>1 825 200</t>
-  </si>
-  <si>
-    <t>-1 049 760</t>
-  </si>
-  <si>
-    <t>333 720</t>
-  </si>
-  <si>
-    <t>-2 458 080</t>
-  </si>
-  <si>
-    <t>-1 348 920</t>
-  </si>
-  <si>
     <t>-7 712 280</t>
   </si>
   <si>
-    <t>1 660 100</t>
-  </si>
-  <si>
-    <t>288 800</t>
-  </si>
-  <si>
-    <t>6 614 800</t>
-  </si>
-  <si>
-    <t>4 875 100</t>
-  </si>
-  <si>
-    <t>388 500</t>
-  </si>
-  <si>
-    <t>13 827 300</t>
-  </si>
-  <si>
-    <t>262 400</t>
-  </si>
-  <si>
-    <t>2 430 400</t>
-  </si>
-  <si>
-    <t>4 020 700</t>
-  </si>
-  <si>
-    <t>1 019 500</t>
-  </si>
-  <si>
-    <t>1 156 100</t>
-  </si>
-  <si>
-    <t>1 868 900</t>
-  </si>
-  <si>
-    <t>24 585 300</t>
-  </si>
-  <si>
-    <t>8 806 200</t>
-  </si>
-  <si>
-    <t>5 191 500</t>
-  </si>
-  <si>
-    <t>13 997 700</t>
-  </si>
-  <si>
-    <t>3 781 900</t>
-  </si>
-  <si>
-    <t>4 406 000</t>
-  </si>
-  <si>
-    <t>613 900</t>
-  </si>
-  <si>
-    <t>79 400</t>
-  </si>
-  <si>
-    <t>22 878 900</t>
-  </si>
-  <si>
-    <t>178 700</t>
-  </si>
-  <si>
-    <t>1 126 500</t>
-  </si>
-  <si>
-    <t>571 400</t>
-  </si>
-  <si>
-    <t>74 300</t>
-  </si>
-  <si>
-    <t>-244 500</t>
-  </si>
-  <si>
-    <t>1 527 700</t>
-  </si>
-  <si>
     <t>-3 512 500</t>
   </si>
   <si>
@@ -615,54 +616,159 @@
     <t>Chiffre d’affaires total</t>
   </si>
   <si>
+    <t>20 322 646,4</t>
+  </si>
+  <si>
+    <t>23 059 080</t>
+  </si>
+  <si>
+    <t>20 443 800</t>
+  </si>
+  <si>
     <t>Coût des ventes</t>
   </si>
   <si>
+    <t>17 321 987,2</t>
+  </si>
+  <si>
+    <t>20 823 480</t>
+  </si>
+  <si>
+    <t>17 104 400</t>
+  </si>
+  <si>
     <t>Bénéfice brut</t>
   </si>
   <si>
+    <t>3 000 659,2</t>
+  </si>
+  <si>
+    <t>2 235 600</t>
+  </si>
+  <si>
+    <t>3 339 400</t>
+  </si>
+  <si>
     <t>Frais d’exploitation</t>
   </si>
   <si>
     <t>Développement de la recherche</t>
   </si>
   <si>
+    <t>576 019,4</t>
+  </si>
+  <si>
+    <t>501 600</t>
+  </si>
+  <si>
     <t>Ventes générales et administratives</t>
   </si>
   <si>
+    <t>1 961 875,8</t>
+  </si>
+  <si>
+    <t>2 327 400</t>
+  </si>
+  <si>
+    <t>2 017 500</t>
+  </si>
+  <si>
     <t>Non récurrent</t>
   </si>
   <si>
     <t>Autres</t>
   </si>
   <si>
+    <t>-306 720</t>
+  </si>
+  <si>
     <t>Frais d’exploitation totaux</t>
   </si>
   <si>
+    <t>2 691 360</t>
+  </si>
+  <si>
     <t>Bénéfice ou perte d’exploitation</t>
   </si>
   <si>
+    <t>462 764</t>
+  </si>
+  <si>
+    <t>-455 760</t>
+  </si>
+  <si>
+    <t>820 300</t>
+  </si>
+  <si>
     <t>Revenu des activités poursuivies</t>
   </si>
   <si>
     <t>Total des autres revenus/frais nets</t>
   </si>
   <si>
+    <t>-1 541 734,8</t>
+  </si>
+  <si>
+    <t>-884 520</t>
+  </si>
+  <si>
+    <t>-615 900</t>
+  </si>
+  <si>
     <t>Bénéfices avant intérêts et taxes</t>
   </si>
   <si>
+    <t>-1 074 099,6</t>
+  </si>
+  <si>
+    <t>-1 372 680</t>
+  </si>
+  <si>
+    <t>204 400</t>
+  </si>
+  <si>
     <t>Charge d’intérêt</t>
   </si>
   <si>
+    <t>300 796,6</t>
+  </si>
+  <si>
+    <t>196 560</t>
+  </si>
+  <si>
+    <t>286 100</t>
+  </si>
+  <si>
     <t>Revenu avant taxes</t>
   </si>
   <si>
+    <t>-1 374 896,2</t>
+  </si>
+  <si>
+    <t>-1 569 240</t>
+  </si>
+  <si>
+    <t>-81 700</t>
+  </si>
+  <si>
     <t>Charge d’impôts</t>
   </si>
   <si>
+    <t>1 992 320,8</t>
+  </si>
+  <si>
+    <t>-320 760</t>
+  </si>
+  <si>
+    <t>8 500</t>
+  </si>
+  <si>
     <t>Bénéfice net des activités poursuivies</t>
   </si>
   <si>
+    <t>-122 200</t>
+  </si>
+  <si>
     <t>Événements non récurrents</t>
   </si>
   <si>
@@ -672,6 +778,9 @@
     <t>Éléments exceptionnels</t>
   </si>
   <si>
+    <t>700</t>
+  </si>
+  <si>
     <t>Effet des variations comptables</t>
   </si>
   <si>
@@ -685,140 +794,28 @@
   </si>
   <si>
     <t>Bénéfice net applicable aux actions ordinaires</t>
-  </si>
-  <si>
-    <t>20 322 646,4</t>
-  </si>
-  <si>
-    <t>17 321 987,2</t>
-  </si>
-  <si>
-    <t>3 000 659,2</t>
-  </si>
-  <si>
-    <t>576 019,4</t>
-  </si>
-  <si>
-    <t>1 961 875,8</t>
-  </si>
-  <si>
-    <t>462 764</t>
-  </si>
-  <si>
-    <t>-1 541 734,8</t>
-  </si>
-  <si>
-    <t>-1 074 099,6</t>
-  </si>
-  <si>
-    <t>300 796,6</t>
-  </si>
-  <si>
-    <t>-1 374 896,2</t>
-  </si>
-  <si>
-    <t>1 992 320,8</t>
-  </si>
-  <si>
-    <t>23 059 080</t>
-  </si>
-  <si>
-    <t>20 823 480</t>
-  </si>
-  <si>
-    <t>2 235 600</t>
-  </si>
-  <si>
-    <t>2 327 400</t>
-  </si>
-  <si>
-    <t>-306 720</t>
-  </si>
-  <si>
-    <t>2 691 360</t>
-  </si>
-  <si>
-    <t>-455 760</t>
-  </si>
-  <si>
-    <t>-884 520</t>
-  </si>
-  <si>
-    <t>-1 372 680</t>
-  </si>
-  <si>
-    <t>196 560</t>
-  </si>
-  <si>
-    <t>-1 569 240</t>
-  </si>
-  <si>
-    <t>-320 760</t>
-  </si>
-  <si>
-    <t>20 443 800</t>
-  </si>
-  <si>
-    <t>17 104 400</t>
-  </si>
-  <si>
-    <t>3 339 400</t>
-  </si>
-  <si>
-    <t>501 600</t>
-  </si>
-  <si>
-    <t>2 017 500</t>
-  </si>
-  <si>
-    <t>820 300</t>
-  </si>
-  <si>
-    <t>-615 900</t>
-  </si>
-  <si>
-    <t>204 400</t>
-  </si>
-  <si>
-    <t>286 100</t>
-  </si>
-  <si>
-    <t>-81 700</t>
-  </si>
-  <si>
-    <t>8 500</t>
-  </si>
-  <si>
-    <t>-122 200</t>
-  </si>
-  <si>
-    <t>700</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -833,35 +830,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1149,21 +1137,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1172,325 +1166,342 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1499,501 +1510,510 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
         <v>161</v>
-      </c>
-      <c r="D26" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="s"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
         <v>196</v>
@@ -2001,33 +2021,41 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C40" t="s"/>
+      <c r="D40" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2036,13 +2064,13 @@
         <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2050,352 +2078,366 @@
         <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
         <v>229</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
         <v>161</v>
-      </c>
-      <c r="D19" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="s"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="s"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C30" t="s"/>
+      <c r="D30" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>